--- a/Scenario_A/CoMo doc/Thailand_CoMoCOVID_ScenarioA_Baseline.xlsx
+++ b/Scenario_A/CoMo doc/Thailand_CoMoCOVID_ScenarioA_Baseline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\como\wave1_2022\A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanaphum\Documents\GitHub\CoVac19TH\Scenario_A\CoMo doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C6ED40-248A-4721-A75F-939347868E39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C990F7-8DE3-4E8E-A222-6F391416801A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" tabRatio="648" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" tabRatio="648" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -4034,6 +4034,32 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="HIDDEN"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="HIDDEN"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Instructions"/>
       <sheetName val="Epidemiology"/>
       <sheetName val="Severity-Mortality"/>
@@ -4068,32 +4094,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="HIDDEN"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="HIDDEN"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6093,7 +6093,7 @@
   </sheetPr>
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -18408,8 +18408,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -18444,7 +18444,7 @@
         <v>186</v>
       </c>
       <c r="B2" s="72">
-        <v>177292</v>
+        <v>300000</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>187</v>
